--- a/graphs/sonar_non-pretensionata_statico.xlsx
+++ b/graphs/sonar_non-pretensionata_statico.xlsx
@@ -455,13 +455,13 @@
         <v>-0.04503407984420642</v>
       </c>
       <c r="C2" t="n">
-        <v>43.61</v>
+        <v>0.4278141</v>
       </c>
       <c r="D2" t="n">
         <v>0.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6246802528300129</v>
+        <v>0.01001948728320346</v>
       </c>
     </row>
     <row r="3">
@@ -472,13 +472,13 @@
         <v>-62.03047711781889</v>
       </c>
       <c r="C3" t="n">
-        <v>63.15</v>
+        <v>0.6195014999999999</v>
       </c>
       <c r="D3" t="n">
         <v>0.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6246802528300129</v>
+        <v>0.01001948728320346</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         <v>-123.2953456669912</v>
       </c>
       <c r="C4" t="n">
-        <v>82.78</v>
+        <v>0.8120718</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6246802528300129</v>
+        <v>0.01001948728320346</v>
       </c>
     </row>
     <row r="5">
@@ -506,13 +506,13 @@
         <v>-185.9616455696202</v>
       </c>
       <c r="C5" t="n">
-        <v>102.64</v>
+        <v>1.0068984</v>
       </c>
       <c r="D5" t="n">
         <v>0.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6246802528300129</v>
+        <v>0.01001948728320346</v>
       </c>
     </row>
     <row r="6">
@@ -523,13 +523,13 @@
         <v>-248.5284031158714</v>
       </c>
       <c r="C6" t="n">
-        <v>122.77</v>
+        <v>1.2043737</v>
       </c>
       <c r="D6" t="n">
         <v>0.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6246802528300129</v>
+        <v>0.01001948728320346</v>
       </c>
     </row>
     <row r="7">
@@ -540,13 +540,13 @@
         <v>-311.4959396299902</v>
       </c>
       <c r="C7" t="n">
-        <v>142.76</v>
+        <v>1.4004756</v>
       </c>
       <c r="D7" t="n">
         <v>0.2</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6246802528300129</v>
+        <v>0.01001948728320346</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/sonar_non-pretensionata_statico.xlsx
+++ b/graphs/sonar_non-pretensionata_statico.xlsx
@@ -452,16 +452,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.04503407984420642</v>
+        <v>-4.503407984420642e-05</v>
       </c>
       <c r="C2" t="n">
         <v>0.4278141</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01001948728320346</v>
+        <v>0.000624680252830013</v>
       </c>
     </row>
     <row r="3">
@@ -469,16 +469,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-62.03047711781889</v>
+        <v>-0.06203047711781889</v>
       </c>
       <c r="C3" t="n">
         <v>0.6195014999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01001948728320346</v>
+        <v>0.000624680252830013</v>
       </c>
     </row>
     <row r="4">
@@ -486,16 +486,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-123.2953456669912</v>
+        <v>-0.1232953456669912</v>
       </c>
       <c r="C4" t="n">
         <v>0.8120718</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01001948728320346</v>
+        <v>0.000624680252830013</v>
       </c>
     </row>
     <row r="5">
@@ -503,16 +503,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-185.9616455696202</v>
+        <v>-0.1859616455696202</v>
       </c>
       <c r="C5" t="n">
         <v>1.0068984</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01001948728320346</v>
+        <v>0.000624680252830013</v>
       </c>
     </row>
     <row r="6">
@@ -520,16 +520,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-248.5284031158714</v>
+        <v>-0.2485284031158714</v>
       </c>
       <c r="C6" t="n">
         <v>1.2043737</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01001948728320346</v>
+        <v>0.000624680252830013</v>
       </c>
     </row>
     <row r="7">
@@ -537,16 +537,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-311.4959396299902</v>
+        <v>-0.3114959396299902</v>
       </c>
       <c r="C7" t="n">
         <v>1.4004756</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2</v>
+        <v>0.0002</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01001948728320346</v>
+        <v>0.000624680252830013</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/sonar_non-pretensionata_statico.xlsx
+++ b/graphs/sonar_non-pretensionata_statico.xlsx
@@ -461,7 +461,7 @@
         <v>0.0002</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000624680252830013</v>
+        <v>0.0006322570903325394</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +478,7 @@
         <v>0.0002</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000624680252830013</v>
+        <v>0.0006322570903325394</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>0.0002</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000624680252830013</v>
+        <v>0.0006322570903325394</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>0.0002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000624680252830013</v>
+        <v>0.0006322570903325394</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>0.0002</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000624680252830013</v>
+        <v>0.0006322570903325394</v>
       </c>
     </row>
     <row r="7">
@@ -546,7 +546,7 @@
         <v>0.0002</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000624680252830013</v>
+        <v>0.0006322570903325394</v>
       </c>
     </row>
   </sheetData>
